--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H2">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>9285.90517083974</v>
+        <v>9392.396709485154</v>
       </c>
       <c r="R2">
-        <v>9285.90517083974</v>
+        <v>84531.57038536639</v>
       </c>
       <c r="S2">
-        <v>0.1018423729682387</v>
+        <v>0.1010932910804926</v>
       </c>
       <c r="T2">
-        <v>0.1018423729682387</v>
+        <v>0.1010932910804925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H3">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>9884.303420445269</v>
+        <v>9899.934058685598</v>
       </c>
       <c r="R3">
-        <v>9884.303420445269</v>
+        <v>89099.4065281704</v>
       </c>
       <c r="S3">
-        <v>0.1084052547335235</v>
+        <v>0.1065560736443005</v>
       </c>
       <c r="T3">
-        <v>0.1084052547335235</v>
+        <v>0.1065560736443004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H4">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>6373.64572240444</v>
+        <v>6396.239503777689</v>
       </c>
       <c r="R4">
-        <v>6373.64572240444</v>
+        <v>57566.1555339992</v>
       </c>
       <c r="S4">
-        <v>0.0699024158535352</v>
+        <v>0.06884471791134422</v>
       </c>
       <c r="T4">
-        <v>0.0699024158535352</v>
+        <v>0.06884471791134422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H5">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>4941.987663892961</v>
+        <v>4988.906984837422</v>
       </c>
       <c r="R5">
-        <v>4941.987663892961</v>
+        <v>44900.1628635368</v>
       </c>
       <c r="S5">
-        <v>0.05420082820263252</v>
+        <v>0.0536971596911304</v>
       </c>
       <c r="T5">
-        <v>0.05420082820263252</v>
+        <v>0.0536971596911304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H6">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I6">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J6">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>3267.138590784761</v>
+        <v>3427.048034832888</v>
       </c>
       <c r="R6">
-        <v>3267.138590784761</v>
+        <v>30843.43231349599</v>
       </c>
       <c r="S6">
-        <v>0.03583206384085202</v>
+        <v>0.03688638536554979</v>
       </c>
       <c r="T6">
-        <v>0.03583206384085202</v>
+        <v>0.03688638536554979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H7">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>501.8136085075048</v>
+        <v>592.899817219156</v>
       </c>
       <c r="R7">
-        <v>501.8136085075048</v>
+        <v>5336.098354972404</v>
       </c>
       <c r="S7">
-        <v>0.005503597951726384</v>
+        <v>0.006381565393546128</v>
       </c>
       <c r="T7">
-        <v>0.005503597951726384</v>
+        <v>0.006381565393546127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H8">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>534.1512621271108</v>
+        <v>624.938370410691</v>
       </c>
       <c r="R8">
-        <v>534.1512621271108</v>
+        <v>5624.445333696219</v>
       </c>
       <c r="S8">
-        <v>0.005858258409727574</v>
+        <v>0.006726406320071178</v>
       </c>
       <c r="T8">
-        <v>0.005858258409727574</v>
+        <v>0.006726406320071177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H9">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>344.4340751348593</v>
+        <v>403.765870414093</v>
       </c>
       <c r="R9">
-        <v>344.4340751348593</v>
+        <v>3633.892833726838</v>
       </c>
       <c r="S9">
-        <v>0.003777551342329995</v>
+        <v>0.004345857817623825</v>
       </c>
       <c r="T9">
-        <v>0.003777551342329995</v>
+        <v>0.004345857817623825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H10">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J10">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>267.0667659417238</v>
+        <v>314.927289692347</v>
       </c>
       <c r="R10">
-        <v>267.0667659417238</v>
+        <v>2834.345607231123</v>
       </c>
       <c r="S10">
-        <v>0.002929031977396203</v>
+        <v>0.003389660504214818</v>
       </c>
       <c r="T10">
-        <v>0.002929031977396203</v>
+        <v>0.003389660504214818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H11">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J11">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>176.5573280765652</v>
+        <v>216.33414945109</v>
       </c>
       <c r="R11">
-        <v>176.5573280765652</v>
+        <v>1947.00734505981</v>
       </c>
       <c r="S11">
-        <v>0.001936377437141454</v>
+        <v>0.002328471828604078</v>
       </c>
       <c r="T11">
-        <v>0.001936377437141454</v>
+        <v>0.002328471828604078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H12">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>8408.639419927653</v>
+        <v>8524.357127219284</v>
       </c>
       <c r="R12">
-        <v>8408.639419927653</v>
+        <v>76719.21414497355</v>
       </c>
       <c r="S12">
-        <v>0.09222103566692624</v>
+        <v>0.09175031070246262</v>
       </c>
       <c r="T12">
-        <v>0.09222103566692624</v>
+        <v>0.0917503107024626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H13">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>8950.505292761429</v>
+        <v>8984.988183786309</v>
       </c>
       <c r="R13">
-        <v>8950.505292761429</v>
+        <v>80864.89365407678</v>
       </c>
       <c r="S13">
-        <v>0.09816390341160158</v>
+        <v>0.09670822622952063</v>
       </c>
       <c r="T13">
-        <v>0.09816390341160158</v>
+        <v>0.09670822622952062</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H14">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I14">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J14">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>5771.509366514094</v>
+        <v>5805.102945275573</v>
       </c>
       <c r="R14">
-        <v>5771.509366514094</v>
+        <v>52245.92650748016</v>
       </c>
       <c r="S14">
-        <v>0.06329853672639403</v>
+        <v>0.06248213102054299</v>
       </c>
       <c r="T14">
-        <v>0.06329853672639403</v>
+        <v>0.06248213102054299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H15">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I15">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J15">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>4475.104097972237</v>
+        <v>4527.835240422259</v>
       </c>
       <c r="R15">
-        <v>4475.104097972237</v>
+        <v>40750.51716380032</v>
       </c>
       <c r="S15">
-        <v>0.0490803225138005</v>
+        <v>0.04873450090350903</v>
       </c>
       <c r="T15">
-        <v>0.0490803225138005</v>
+        <v>0.04873450090350902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H16">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I16">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J16">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>2958.482758483227</v>
+        <v>3110.322343129809</v>
       </c>
       <c r="R16">
-        <v>2958.482758483227</v>
+        <v>27992.90108816828</v>
       </c>
       <c r="S16">
-        <v>0.03244690732527754</v>
+        <v>0.03347736810037458</v>
       </c>
       <c r="T16">
-        <v>0.03244690732527754</v>
+        <v>0.03347736810037457</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H17">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>6675.822789402438</v>
+        <v>6851.983152969638</v>
       </c>
       <c r="R17">
-        <v>6675.822789402438</v>
+        <v>61667.84837672674</v>
       </c>
       <c r="S17">
-        <v>0.07321651706321572</v>
+        <v>0.07375002875062342</v>
       </c>
       <c r="T17">
-        <v>0.07321651706321572</v>
+        <v>0.07375002875062341</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H18">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I18">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J18">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>7106.023248954822</v>
+        <v>7222.244064405835</v>
       </c>
       <c r="R18">
-        <v>7106.023248954822</v>
+        <v>65000.19657965251</v>
       </c>
       <c r="S18">
-        <v>0.07793470391164758</v>
+        <v>0.07773526225952615</v>
       </c>
       <c r="T18">
-        <v>0.07793470391164758</v>
+        <v>0.07773526225952614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H19">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I19">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J19">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>4582.141275663826</v>
+        <v>4666.21318049565</v>
       </c>
       <c r="R19">
-        <v>4582.141275663826</v>
+        <v>41995.91862446085</v>
       </c>
       <c r="S19">
-        <v>0.05025424363095406</v>
+        <v>0.05022390577083443</v>
       </c>
       <c r="T19">
-        <v>0.05025424363095406</v>
+        <v>0.05022390577083443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H20">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I20">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J20">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>3552.893688292838</v>
+        <v>3639.529682271307</v>
       </c>
       <c r="R20">
-        <v>3552.893688292838</v>
+        <v>32755.76714044176</v>
       </c>
       <c r="S20">
-        <v>0.03896605850077824</v>
+        <v>0.03917339151511565</v>
       </c>
       <c r="T20">
-        <v>0.03896605850077824</v>
+        <v>0.03917339151511564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H21">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I21">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J21">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>2348.811220793964</v>
+        <v>2500.115372616095</v>
       </c>
       <c r="R21">
-        <v>2348.811220793964</v>
+        <v>22501.03835354485</v>
       </c>
       <c r="S21">
-        <v>0.02576038673443086</v>
+        <v>0.02690952042554293</v>
       </c>
       <c r="T21">
-        <v>0.02576038673443086</v>
+        <v>0.02690952042554293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H22">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I22">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J22">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>212.4576530782902</v>
+        <v>225.3126580439715</v>
       </c>
       <c r="R22">
-        <v>212.4576530782902</v>
+        <v>2027.813922395744</v>
       </c>
       <c r="S22">
-        <v>0.002330111189666523</v>
+        <v>0.002425110312978598</v>
       </c>
       <c r="T22">
-        <v>0.002330111189666523</v>
+        <v>0.002425110312978598</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H23">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I23">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J23">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>226.1487564632982</v>
+        <v>237.4878879391759</v>
       </c>
       <c r="R23">
-        <v>226.1487564632982</v>
+        <v>2137.390991452584</v>
       </c>
       <c r="S23">
-        <v>0.0024802671983302</v>
+        <v>0.002556156104360561</v>
       </c>
       <c r="T23">
-        <v>0.0024802671983302</v>
+        <v>0.00255615610436056</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H24">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I24">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J24">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>145.826366608488</v>
+        <v>153.4383362051369</v>
       </c>
       <c r="R24">
-        <v>145.826366608488</v>
+        <v>1380.945025846232</v>
       </c>
       <c r="S24">
-        <v>0.001599338238277715</v>
+        <v>0.001651504601506835</v>
       </c>
       <c r="T24">
-        <v>0.001599338238277715</v>
+        <v>0.001651504601506834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H25">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I25">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J25">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>113.0706249197686</v>
+        <v>119.6780681498142</v>
       </c>
       <c r="R25">
-        <v>113.0706249197686</v>
+        <v>1077.102613348328</v>
       </c>
       <c r="S25">
-        <v>0.00124009243503717</v>
+        <v>0.001288132321668447</v>
       </c>
       <c r="T25">
-        <v>0.00124009243503717</v>
+        <v>0.001288132321668447</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H26">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I26">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J26">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>74.75077383510168</v>
+        <v>82.21089098512887</v>
       </c>
       <c r="R26">
-        <v>74.75077383510168</v>
+        <v>739.8980188661599</v>
       </c>
       <c r="S26">
-        <v>0.0008198227365583195</v>
+        <v>0.0008848614245555907</v>
       </c>
       <c r="T26">
-        <v>0.0008198227365583195</v>
+        <v>0.0008848614245555906</v>
       </c>
     </row>
   </sheetData>
